--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -384,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -406,7 +406,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,38 +429,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,31 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,23 +474,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,12 +528,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -564,187 +564,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,8 +761,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,26 +815,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,25 +830,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2539,12 +2539,15 @@
         <v>0.798611111111111</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B111" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.822916666666667</v>
       </c>
     </row>
     <row r="112" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -384,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -412,9 +412,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,37 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,15 +475,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +512,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,37 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -570,181 +570,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,63 +755,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,11 +775,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2550,12 +2550,15 @@
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B112" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="113" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -384,9 +384,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
@@ -406,7 +406,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,90 +474,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,9 +496,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,8 +534,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,25 +564,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,151 +732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +755,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -773,11 +802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,29 +834,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,31 +855,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2561,12 +2561,15 @@
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B113" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="114" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -384,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -405,8 +405,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,24 +511,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,24 +526,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,75 +548,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -564,25 +564,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,145 +696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,31 +758,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,32 +818,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,17 +845,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2572,12 +2572,15 @@
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B114" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -385,9 +385,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -405,9 +405,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,55 +420,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,34 +442,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,8 +458,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -542,8 +510,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,31 +564,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,151 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,36 +755,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -799,6 +769,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,11 +815,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2583,12 +2583,15 @@
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B115" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -377,6 +377,69 @@
   </si>
   <si>
     <t>2019 Apr</t>
+  </si>
+  <si>
+    <t>2019.04.01</t>
+  </si>
+  <si>
+    <t>2019.04.02</t>
+  </si>
+  <si>
+    <t>2019.04.03</t>
+  </si>
+  <si>
+    <t>2019.04.04</t>
+  </si>
+  <si>
+    <t>2019.04.08</t>
+  </si>
+  <si>
+    <t>2019.04.09</t>
+  </si>
+  <si>
+    <t>2019.04.10</t>
+  </si>
+  <si>
+    <t>2019.04.11</t>
+  </si>
+  <si>
+    <t>2019.04.12</t>
+  </si>
+  <si>
+    <t>2019.04.15</t>
+  </si>
+  <si>
+    <t>2019.04.16</t>
+  </si>
+  <si>
+    <t>2019.04.17</t>
+  </si>
+  <si>
+    <t>2019.04.18</t>
+  </si>
+  <si>
+    <t>2019.04.19</t>
+  </si>
+  <si>
+    <t>2019.04.22</t>
+  </si>
+  <si>
+    <t>2019.04.23</t>
+  </si>
+  <si>
+    <t>2019.04.24</t>
+  </si>
+  <si>
+    <t>2019.04.25</t>
+  </si>
+  <si>
+    <t>2019.04.26</t>
+  </si>
+  <si>
+    <t>2019.04.29</t>
+  </si>
+  <si>
+    <t>2019.04.30</t>
   </si>
 </sst>
 </file>
@@ -386,8 +449,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -406,29 +469,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -443,50 +483,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -495,7 +491,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -511,6 +515,57 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -519,15 +574,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,19 +627,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,163 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,54 +818,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -826,6 +841,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2599,6 +2662,117 @@
         <v>120</v>
       </c>
     </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.822916666666667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="29040" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,106 +468,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,14 +484,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -604,13 +566,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -627,187 +627,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,35 +821,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,21 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -908,13 +886,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2673,9 +2673,15 @@
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.848611111111111</v>
       </c>
     </row>
     <row r="119" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12780"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,30 +468,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -500,7 +476,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,30 +492,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,9 +521,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,9 +583,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,36 +605,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -627,19 +627,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,13 +717,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,139 +765,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +818,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,35 +877,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,35 +899,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +936,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2684,14 +2684,26 @@
         <v>0.848611111111111</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.8625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>124</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.809027777777778</v>
       </c>
     </row>
     <row r="121" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>2019.04.26</t>
+  </si>
+  <si>
+    <t>2019.04.28</t>
   </si>
   <si>
     <t>2019.04.29</t>
@@ -447,11 +450,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -475,8 +478,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,117 +601,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,37 +828,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,8 +862,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,36 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,10 +1396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2706,9 +2709,15 @@
         <v>0.809027777777778</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -2789,6 +2798,11 @@
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,11 +450,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -472,7 +472,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,9 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,104 +609,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -630,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,6 +829,69 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,79 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2720,14 +2720,26 @@
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.815972222222222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.8625</v>
       </c>
     </row>
     <row r="124" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -452,8 +452,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -472,91 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +494,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,9 +515,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,12 +578,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,31 +630,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,55 +786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,85 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,20 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,17 +863,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,6 +904,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -906,31 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2742,9 +2742,15 @@
         <v>0.8625</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>128</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.815972222222222</v>
       </c>
     </row>
     <row r="125" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -472,38 +472,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,11 +509,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,7 +576,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -554,9 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,43 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,37 +630,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,43 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,91 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,26 +896,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,186 +921,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2753,14 +2753,23 @@
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.822916666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="127" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
@@ -471,17 +471,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,56 +517,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,38 +533,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,12 +562,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,181 +630,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,8 +827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,8 +836,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,26 +896,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,31 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2764,17 +2764,26 @@
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B126" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="C126" s="2">
+        <v>0.841666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="128" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -471,6 +471,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -479,15 +494,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,30 +504,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -533,7 +518,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +546,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -566,22 +596,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,20 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,37 +630,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,127 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,11 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,8 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,17 +887,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2786,9 +2786,15 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>132</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="129" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -472,7 +472,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,37 +552,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -532,36 +568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,19 +584,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,22 +614,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,187 +630,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,15 +868,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,9 +889,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,51 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2797,9 +2797,15 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.805555555555556</v>
       </c>
     </row>
     <row r="130" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -471,6 +471,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -485,8 +539,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -495,14 +564,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,8 +585,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,77 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,19 +630,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,31 +750,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,126 +811,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +821,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -857,36 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -897,40 +921,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,16 +939,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,115 +957,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2808,9 +2808,15 @@
         <v>0.805555555555556</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.798611111111111</v>
       </c>
     </row>
     <row r="131" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -452,8 +452,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -473,9 +473,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,11 +486,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,9 +516,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,17 +525,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,16 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +563,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,42 +608,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -630,31 +630,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,151 +750,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,17 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,6 +848,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -865,33 +870,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,13 +889,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,145 +927,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2819,9 +2819,15 @@
         <v>0.798611111111111</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.841666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -452,8 +452,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -471,61 +471,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,11 +493,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,22 +535,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,6 +554,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -607,11 +608,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -630,19 +630,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,151 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,11 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,41 +856,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +882,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +939,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1399,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2830,9 +2830,15 @@
         <v>0.841666666666667</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.855555555555556</v>
       </c>
     </row>
     <row r="133" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>2019.04.28</t>
+  </si>
+  <si>
+    <t>调休（2019.03.02）</t>
   </si>
   <si>
     <t>2019.04.29</t>
@@ -452,8 +455,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -471,14 +474,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -493,8 +488,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,8 +517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +527,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,33 +549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,8 +566,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,15 +596,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,187 +633,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,6 +824,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -858,30 +876,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -904,10 +898,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -921,16 +913,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,7 +1401,7 @@
   <sheetPr/>
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
@@ -2841,34 +2844,52 @@
         <v>0.855555555555556</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.916666666666667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.802083333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="B136" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -454,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -503,8 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,9 +534,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,24 +595,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,28 +617,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -639,31 +639,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,145 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +842,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -857,41 +868,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,13 +895,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2866,12 +2866,15 @@
         <v>0.802083333333333</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B135" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.802083333333333</v>
       </c>
     </row>
     <row r="136" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -453,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -474,8 +474,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,16 +504,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,37 +520,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -565,16 +527,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,10 +573,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,6 +596,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -633,25 +633,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,157 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,17 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -868,11 +857,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,46 +924,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2885,14 +2885,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -446,6 +446,72 @@
   </si>
   <si>
     <t>2019.04.30</t>
+  </si>
+  <si>
+    <t>2019 May</t>
+  </si>
+  <si>
+    <t>2019.05.05</t>
+  </si>
+  <si>
+    <t>2019.05.06</t>
+  </si>
+  <si>
+    <t>2019.05.07</t>
+  </si>
+  <si>
+    <t>2019.05.08</t>
+  </si>
+  <si>
+    <t>2019.05.09</t>
+  </si>
+  <si>
+    <t>2019.05.10</t>
+  </si>
+  <si>
+    <t>2019.05.13</t>
+  </si>
+  <si>
+    <t>2019.05.14</t>
+  </si>
+  <si>
+    <t>2019.05.15</t>
+  </si>
+  <si>
+    <t>2019.05.16</t>
+  </si>
+  <si>
+    <t>2019.05.17</t>
+  </si>
+  <si>
+    <t>2019.05.20</t>
+  </si>
+  <si>
+    <t>2019.05.21</t>
+  </si>
+  <si>
+    <t>2019.05.22</t>
+  </si>
+  <si>
+    <t>2019.05.23</t>
+  </si>
+  <si>
+    <t>2019.05.24</t>
+  </si>
+  <si>
+    <t>2019.05.27</t>
+  </si>
+  <si>
+    <t>2019.05.28</t>
+  </si>
+  <si>
+    <t>2019.05.29</t>
+  </si>
+  <si>
+    <t>2019.05.30</t>
+  </si>
+  <si>
+    <t>2019.05.31</t>
   </si>
 </sst>
 </file>
@@ -453,11 +519,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -472,6 +538,21 @@
       <color rgb="FF2E3033"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -489,9 +570,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,13 +579,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,60 +593,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -596,10 +616,63 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,13 +683,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -633,7 +699,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,19 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,31 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,12 +849,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -723,31 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,61 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,6 +890,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,17 +956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,58 +990,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2907,6 +2973,140 @@
         <v>0.8125</v>
       </c>
     </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.802083333333333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.822916666666667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,11 +519,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -540,6 +540,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -547,8 +584,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -564,105 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,6 +645,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -683,6 +676,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -699,7 +699,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,55 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,13 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,61 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,21 +890,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -926,8 +911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +922,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,8 +970,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,27 +990,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3000,12 +3000,15 @@
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B142" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.822916666666667</v>
       </c>
     </row>
     <row r="143" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,9 +519,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
@@ -540,30 +540,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +556,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,23 +577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +600,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +646,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,10 +661,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,21 +683,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -699,7 +699,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,43 +825,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,127 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,8 +920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,8 +929,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,15 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -996,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3011,12 +3011,15 @@
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B143" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.841666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -520,9 +520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -541,7 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +549,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -557,6 +565,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,17 +592,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,7 +630,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,31 +652,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,23 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,7 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +741,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,19 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,115 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,11 +893,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,43 +950,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,17 +971,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3019,15 +3019,18 @@
         <v>0.375</v>
       </c>
       <c r="C143" s="2">
-        <v>0.841666666666667</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.883333333333333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B144" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.819444444444444</v>
       </c>
     </row>
     <row r="145" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -547,9 +547,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,17 +585,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,14 +601,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,9 +624,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,6 +641,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,44 +677,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -699,7 +699,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,31 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,13 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,121 +873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,38 +961,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,8 +970,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,36 +990,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3033,17 +3033,26 @@
         <v>0.819444444444444</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B145" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="C145" s="2">
+        <v>0.815972222222222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.857638888888889</v>
       </c>
     </row>
     <row r="147" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -520,9 +520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -540,8 +540,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +593,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,40 +654,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,23 +670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,37 +678,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,13 +699,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +801,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,31 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,121 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -910,59 +949,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,16 +979,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3055,9 +3055,15 @@
         <v>0.857638888888889</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>152</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="148" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -520,9 +520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -540,16 +540,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,20 +555,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -585,23 +570,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,25 +606,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,9 +661,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,7 +699,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,175 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -904,6 +915,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,75 +990,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3066,14 +3066,23 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.8875</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>154</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="150" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,10 +519,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
@@ -548,7 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,6 +556,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,21 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,7 +599,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -614,8 +614,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -623,7 +637,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -646,28 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -683,6 +675,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -699,6 +699,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,7 +831,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,67 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,91 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,6 +890,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -923,7 +932,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,35 +952,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,16 +975,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3077,12 +3077,15 @@
         <v>0.8875</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B149" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.857638888888889</v>
       </c>
     </row>
     <row r="150" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,11 +519,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -548,7 +548,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,74 +585,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -644,6 +607,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -652,11 +623,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,6 +647,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -683,6 +661,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -699,7 +699,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,19 +795,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,25 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,96 +880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,18 +896,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -924,15 +913,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,7 +936,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,16 +970,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3088,14 +3088,26 @@
         <v>0.857638888888889</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.813888888888889</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.857638888888889</v>
       </c>
     </row>
     <row r="152" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,11 +519,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -541,6 +541,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -548,7 +555,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,28 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -591,16 +599,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -615,9 +653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,55 +669,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -699,7 +699,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +747,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,163 +867,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,9 +895,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,30 +935,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -956,17 +949,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,11 +969,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,7 +1215,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3107,12 +3107,18 @@
         <v>0.375</v>
       </c>
       <c r="C151" s="2">
-        <v>0.857638888888889</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>0.864583333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="153" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -519,11 +519,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -555,7 +555,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +585,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,36 +655,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,37 +669,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -668,19 +677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -699,7 +699,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,13 +795,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,85 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,61 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,25 +895,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -935,16 +933,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,7 +951,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,26 +965,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,145 +996,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3121,19 +3121,34 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.894444444444444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.899305555555556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>160</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="156" spans="1:1">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -512,6 +512,36 @@
   </si>
   <si>
     <t>2019.05.31</t>
+  </si>
+  <si>
+    <t>2019 Jun</t>
+  </si>
+  <si>
+    <t>2019.06.03</t>
+  </si>
+  <si>
+    <t>2019.06.04</t>
+  </si>
+  <si>
+    <t>2019.06.05</t>
+  </si>
+  <si>
+    <t>2019.06.06</t>
+  </si>
+  <si>
+    <t>2019.06.10</t>
+  </si>
+  <si>
+    <t>2019.06.11</t>
+  </si>
+  <si>
+    <t>2019.06.12</t>
+  </si>
+  <si>
+    <t>2019.06.13</t>
+  </si>
+  <si>
+    <t>2019.06.14</t>
   </si>
 </sst>
 </file>
@@ -519,11 +549,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -540,22 +570,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,14 +603,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,7 +677,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,78 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,7 +729,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,115 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,19 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +879,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,26 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,26 +953,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,6 +986,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -990,16 +1011,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,16 +1038,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,115 +1056,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1465,10 +1495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3143,37 +3173,159 @@
         <v>0.899305555555556</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B155" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="C155" s="2">
+        <v>0.813194444444444</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.880555555555556</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.864583333333333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.951388888888889</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.923611111111111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.819444444444444</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.774305555555556</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.815972222222222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.829861111111111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,9 +549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
@@ -570,17 +570,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,22 +594,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,15 +638,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,11 +668,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,22 +691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -700,7 +700,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -708,7 +708,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,13 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,19 +771,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,121 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,21 +924,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -958,6 +943,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,36 +1020,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,133 +1038,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3288,28 +3288,37 @@
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166" s="2">
+        <v>0.864583333333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B167" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" s="2">
+        <v>0.878472222222222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B168" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.850694444444444</v>
       </c>
     </row>
     <row r="169" spans="1:2">

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -542,6 +542,21 @@
   </si>
   <si>
     <t>2019.06.14</t>
+  </si>
+  <si>
+    <t>2019.06.17</t>
+  </si>
+  <si>
+    <t>2019.06.18</t>
+  </si>
+  <si>
+    <t>2019.06.19</t>
+  </si>
+  <si>
+    <t>2019.06.20</t>
+  </si>
+  <si>
+    <t>2019.06.21</t>
   </si>
 </sst>
 </file>
@@ -549,9 +564,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
@@ -568,22 +583,6 @@
       <color rgb="FF2E3033"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -609,8 +608,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +639,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,15 +677,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,29 +700,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -699,16 +708,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,13 +744,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,49 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,97 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,6 +935,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -934,24 +958,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,11 +988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,17 +1018,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1495,10 +1510,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3321,19 +3336,68 @@
         <v>0.850694444444444</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B169" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" s="2">
+        <v>0.850694444444444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B170" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.836805555555556</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" s="2">
         <v>0.375</v>
       </c>
     </row>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>2019.06.21</t>
+  </si>
+  <si>
+    <t>2019.06.22</t>
+  </si>
+  <si>
+    <t>2019.06.24</t>
+  </si>
+  <si>
+    <t>2019.06.25</t>
+  </si>
+  <si>
+    <t>2019.06.26</t>
+  </si>
+  <si>
+    <t>2019.06.27</t>
+  </si>
+  <si>
+    <t>2019.06.28</t>
   </si>
 </sst>
 </file>
@@ -564,11 +582,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -585,8 +603,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -601,8 +671,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,8 +694,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,98 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +816,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,139 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,11 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,17 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -988,17 +1001,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,17 +1037,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,133 +1071,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1510,10 +1528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3366,39 +3384,120 @@
         <v>0.375</v>
       </c>
       <c r="C171" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>0.863888888888889</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B172" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" s="2">
+        <v>0.885416666666667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B173" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" s="2">
+        <v>0.894444444444444</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B174" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" s="2">
+        <v>0.892361111111111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="2">
         <v>0.375</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.856944444444444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.836805555555556</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.892361111111111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.901388888888889</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.899305555555556</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.897222222222222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/worktime/上下班时间记录.xlsx
+++ b/worktime/上下班时间记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -575,6 +575,75 @@
   </si>
   <si>
     <t>2019.06.28</t>
+  </si>
+  <si>
+    <t>2019.07.01</t>
+  </si>
+  <si>
+    <t>2019.07.02</t>
+  </si>
+  <si>
+    <t>2019.07.03</t>
+  </si>
+  <si>
+    <t>2019.07.04</t>
+  </si>
+  <si>
+    <t>2019.07.05</t>
+  </si>
+  <si>
+    <t>2019.07.08</t>
+  </si>
+  <si>
+    <t>2019.07.09</t>
+  </si>
+  <si>
+    <t>2019.07.10</t>
+  </si>
+  <si>
+    <t>2019.07.11</t>
+  </si>
+  <si>
+    <t>2019.07.12</t>
+  </si>
+  <si>
+    <t>2019.07.15</t>
+  </si>
+  <si>
+    <t>2019.07.16</t>
+  </si>
+  <si>
+    <t>2019.07.17</t>
+  </si>
+  <si>
+    <t>2019.07.18</t>
+  </si>
+  <si>
+    <t>2019.07.19</t>
+  </si>
+  <si>
+    <t>2019.07.22</t>
+  </si>
+  <si>
+    <t>2019.07.23</t>
+  </si>
+  <si>
+    <t>2019.07.24</t>
+  </si>
+  <si>
+    <t>2019.07.25</t>
+  </si>
+  <si>
+    <t>2019.07.26</t>
+  </si>
+  <si>
+    <t>2019.07.29</t>
+  </si>
+  <si>
+    <t>2019.07.30</t>
+  </si>
+  <si>
+    <t>2019.07.31</t>
   </si>
 </sst>
 </file>
@@ -582,11 +651,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -603,16 +672,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,52 +691,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,17 +709,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +725,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,7 +764,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,14 +795,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,96 +837,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -870,55 +849,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +921,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,21 +1022,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -986,25 +1040,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1034,6 +1084,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1042,27 +1122,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,133 +1140,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,10 +1597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3500,6 +3569,198 @@
         <v>0.833333333333333</v>
       </c>
     </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.892361111111111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.943055555555556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.913194444444444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.826388888888889</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.840277777777778</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.841666666666667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.848611111111111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.847222222222222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.819444444444444</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.809027777777778</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0.8625</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
